--- a/data/Resume Data - Scrubbed.xlsx
+++ b/data/Resume Data - Scrubbed.xlsx
@@ -15892,7 +15892,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS41"/>
+  <dimension ref="A1:AZ41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15918,210 +15918,245 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Air force nominations</t>
+          <t>Air Force nominations</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Air force nominations, carryover</t>
+          <t>Air Force nominations, carryover</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Air force, confirmed</t>
+          <t>Air Force, confirmed</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Air force, failed</t>
+          <t>Air Force, failed</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Air force, returned</t>
+          <t>Air Force, returned</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Air force, withdrawn</t>
+          <t>Air Force, unconfirmed</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Air Force, withdrawn</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Army nominations</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Army nominations, carryover</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Army, confirmed</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Army, failed</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Army, returned</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Army, unconfirmed</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Army, withdrawn</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Civilian nominations</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Civilian nominations, carryover</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Civilian, confirmed</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Civilian, failed</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Civilian, recess reappointment</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Civilian, rejected</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Civilian, returned</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Civilian, unconfirmed</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Civilian, withdrawn</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Marine corps nominations</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Marine corps nominations, carryover</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Marine corps, confirmed</t>
-        </is>
-      </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Marine corps, returned</t>
+          <t>Marine Corps nominations</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Marine corps, withdrawn</t>
+          <t>Marine Corps nominations, carryover</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Marine Corps, confirmed</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Marine Corps, returned</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Marine Corps, unconfirmed</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Marine Corps, withdrawn</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Navy nominations</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Navy nominations, carryover</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Navy, confirmed</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Navy, returned</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Navy, unconfirmed</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Navy, withdrawn</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>Space force nominations</t>
+          <t>Space Force nominations</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>Space force nominations, carryover</t>
+          <t>Space Force nominations, carryover</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>Space force, confirmed</t>
+          <t>Space Force, confirmed</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>Space force, withdrawn</t>
+          <t>Space Force, unconfirmed</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Space Force, withdrawn</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Summary, failed</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Summary, returned</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>Summary, confirmed</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Summary, recess reappointment</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>Summary, rejected</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>Summary, unconfirmed</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>Summary, withdrawn</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Total nominations</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Total nominations, carryover</t>
         </is>
@@ -16144,7 +16179,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>12818</v>
+        <v>12792</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -16153,86 +16188,86 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>14784</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>14782</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>2</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
         <v>3454</v>
       </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>2978</v>
       </c>
-      <c r="S2" t="n">
+      <c r="U2" t="n">
         <v>474</v>
       </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
         <v>2</v>
       </c>
-      <c r="X2" t="n">
+      <c r="AA2" t="n">
         <v>2990</v>
       </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
         <v>2990</v>
       </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
         <v>21994</v>
       </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
         <v>21994</v>
       </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ2" t="n">
         <v>0</v>
       </c>
@@ -16240,27 +16275,48 @@
         <v>0</v>
       </c>
       <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
         <v>477</v>
       </c>
-      <c r="AM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>55562</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ2" t="n">
+      <c r="AS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>55536</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AX2" t="n">
         <v>2</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AY2" t="n">
         <v>56041</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AZ2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16293,17 +16349,17 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>14031</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>14031</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
@@ -16311,65 +16367,65 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>4127</v>
       </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>4108</v>
-      </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
+        <v>4001</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>17</v>
       </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
       <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>107</v>
+      </c>
+      <c r="Z3" t="n">
         <v>2</v>
       </c>
-      <c r="X3" t="n">
+      <c r="AA3" t="n">
         <v>2995</v>
       </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
         <v>2995</v>
       </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
         <v>8855</v>
       </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
         <v>8855</v>
       </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ3" t="n">
         <v>0</v>
       </c>
@@ -16383,21 +16439,42 @@
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>41833</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>41726</v>
+      </c>
+      <c r="AU3" t="n">
         <v>17</v>
       </c>
-      <c r="AP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ3" t="n">
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>107</v>
+      </c>
+      <c r="AX3" t="n">
         <v>2</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AY3" t="n">
         <v>41826</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AZ3" t="n">
         <v>26</v>
       </c>
     </row>
@@ -16418,7 +16495,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>21367</v>
+        <v>19013</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -16427,19 +16504,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2354</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>15370</v>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
       <c r="L4" t="n">
-        <v>15370</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>14478</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -16448,65 +16525,65 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
+        <v>892</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>3719</v>
       </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>3672</v>
-      </c>
       <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3603</v>
+      </c>
+      <c r="U4" t="n">
         <v>34</v>
       </c>
-      <c r="T4" t="n">
+      <c r="V4" t="n">
         <v>6</v>
       </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
       <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>69</v>
+      </c>
+      <c r="Z4" t="n">
         <v>7</v>
       </c>
-      <c r="X4" t="n">
+      <c r="AA4" t="n">
         <v>2466</v>
       </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>2466</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
       <c r="AB4" t="n">
         <v>0</v>
       </c>
       <c r="AC4" t="n">
+        <v>2104</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>362</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
         <v>16721</v>
       </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
         <v>16720</v>
       </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ4" t="n">
         <v>0</v>
       </c>
@@ -16514,27 +16591,48 @@
         <v>0</v>
       </c>
       <c r="AL4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
         <v>34</v>
       </c>
-      <c r="AM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>59595</v>
-      </c>
-      <c r="AO4" t="n">
+      <c r="AS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>55918</v>
+      </c>
+      <c r="AU4" t="n">
         <v>6</v>
       </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ4" t="n">
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>3677</v>
+      </c>
+      <c r="AX4" t="n">
         <v>8</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AY4" t="n">
         <v>59643</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AZ4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16567,17 +16665,17 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
         <v>10810</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>892</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>10810</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
@@ -16585,19 +16683,19 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
         <v>2115</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="S5" t="n">
         <v>69</v>
       </c>
-      <c r="R5" t="n">
-        <v>2107</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>2037</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -16606,44 +16704,44 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>70</v>
+      </c>
+      <c r="Z5" t="n">
         <v>8</v>
       </c>
-      <c r="X5" t="n">
+      <c r="AA5" t="n">
         <v>2494</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="AB5" t="n">
         <v>362</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AC5" t="n">
         <v>2494</v>
       </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
         <v>9952</v>
       </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="n">
         <v>9952</v>
       </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ5" t="n">
         <v>0</v>
       </c>
@@ -16657,7 +16755,7 @@
         <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>39963</v>
+        <v>0</v>
       </c>
       <c r="AO5" t="n">
         <v>0</v>
@@ -16666,12 +16764,33 @@
         <v>0</v>
       </c>
       <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>39893</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>70</v>
+      </c>
+      <c r="AX5" t="n">
         <v>8</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AY5" t="n">
         <v>36294</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AZ5" t="n">
         <v>3677</v>
       </c>
     </row>
@@ -16692,7 +16811,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>18666</v>
+        <v>15711</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -16701,114 +16820,135 @@
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2955</v>
       </c>
       <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
         <v>14448</v>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
       <c r="L6" t="n">
-        <v>14447</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>12086</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
+        <v>2361</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
         <v>4718</v>
       </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>4691</v>
-      </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>4569</v>
       </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" t="n">
         <v>16</v>
       </c>
-      <c r="W6" t="n">
+      <c r="Y6" t="n">
+        <v>122</v>
+      </c>
+      <c r="Z6" t="n">
         <v>10</v>
       </c>
-      <c r="X6" t="n">
+      <c r="AA6" t="n">
         <v>1995</v>
       </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1993</v>
-      </c>
-      <c r="AA6" t="n">
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1983</v>
+      </c>
+      <c r="AD6" t="n">
         <v>2</v>
       </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
+      <c r="AE6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
         <v>12101</v>
       </c>
-      <c r="AD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>12101</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0</v>
-      </c>
       <c r="AH6" t="n">
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>12055</v>
       </c>
       <c r="AJ6" t="n">
         <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AL6" t="n">
         <v>0</v>
       </c>
       <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
         <v>20</v>
       </c>
-      <c r="AN6" t="n">
-        <v>51898</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ6" t="n">
+      <c r="AT6" t="n">
+        <v>46404</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>5494</v>
+      </c>
+      <c r="AX6" t="n">
         <v>10</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AY6" t="n">
         <v>51929</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AZ6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16841,37 +16981,37 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
         <v>12861</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>2361</v>
       </c>
-      <c r="L7" t="n">
-        <v>12860</v>
-      </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>12858</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
         <v>2792</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="S7" t="n">
         <v>122</v>
       </c>
-      <c r="R7" t="n">
-        <v>2781</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>2357</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -16880,58 +17020,58 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>424</v>
+      </c>
+      <c r="Z7" t="n">
         <v>11</v>
       </c>
-      <c r="X7" t="n">
+      <c r="AA7" t="n">
         <v>1596</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="AB7" t="n">
         <v>10</v>
       </c>
-      <c r="Z7" t="n">
-        <v>1596</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0</v>
-      </c>
       <c r="AC7" t="n">
+        <v>1595</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
         <v>10205</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AH7" t="n">
         <v>46</v>
       </c>
-      <c r="AE7" t="n">
-        <v>10204</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>0</v>
-      </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>10203</v>
       </c>
       <c r="AJ7" t="n">
         <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM7" t="n">
         <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>42745</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
         <v>0</v>
@@ -16940,12 +17080,33 @@
         <v>0</v>
       </c>
       <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>42317</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>428</v>
+      </c>
+      <c r="AX7" t="n">
         <v>13</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AY7" t="n">
         <v>37264</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AZ7" t="n">
         <v>5494</v>
       </c>
     </row>
@@ -16966,7 +17127,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>11421</v>
+        <v>11394</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -16975,114 +17136,135 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>17754</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
       <c r="L8" t="n">
-        <v>17753</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>15312</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
+        <v>2441</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
         <v>3564</v>
       </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>3478</v>
-      </c>
       <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3399</v>
+      </c>
+      <c r="U8" t="n">
         <v>51</v>
       </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1</v>
-      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
+        <v>1</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>79</v>
+      </c>
+      <c r="Z8" t="n">
         <v>34</v>
       </c>
-      <c r="X8" t="n">
+      <c r="AA8" t="n">
         <v>2787</v>
       </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>2787</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0</v>
-      </c>
       <c r="AB8" t="n">
         <v>0</v>
       </c>
       <c r="AC8" t="n">
+        <v>2776</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
         <v>12908</v>
       </c>
-      <c r="AD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>12908</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0</v>
-      </c>
       <c r="AH8" t="n">
         <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>12704</v>
       </c>
       <c r="AJ8" t="n">
         <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
         <v>52</v>
       </c>
-      <c r="AM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>48347</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ8" t="n">
+      <c r="AS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>45585</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>2762</v>
+      </c>
+      <c r="AX8" t="n">
         <v>34</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="AY8" t="n">
         <v>48434</v>
       </c>
-      <c r="AS8" t="n">
+      <c r="AZ8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17103,7 +17285,7 @@
         <v>27</v>
       </c>
       <c r="F9" t="n">
-        <v>13399</v>
+        <v>11422</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -17112,40 +17294,40 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>1977</v>
       </c>
       <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
         <v>17493</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>2441</v>
       </c>
-      <c r="L9" t="n">
-        <v>17491</v>
-      </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>14567</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2924</v>
+      </c>
+      <c r="Q9" t="n">
         <v>2</v>
       </c>
-      <c r="P9" t="n">
+      <c r="R9" t="n">
         <v>2443</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="S9" t="n">
         <v>79</v>
       </c>
-      <c r="R9" t="n">
-        <v>2432</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>2145</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -17154,49 +17336,49 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>287</v>
+      </c>
+      <c r="Z9" t="n">
         <v>11</v>
       </c>
-      <c r="X9" t="n">
+      <c r="AA9" t="n">
         <v>2786</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="AB9" t="n">
         <v>11</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AC9" t="n">
         <v>2786</v>
       </c>
-      <c r="AA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
         <v>11574</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AH9" t="n">
         <v>204</v>
       </c>
-      <c r="AE9" t="n">
-        <v>11574</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0</v>
-      </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>11573</v>
       </c>
       <c r="AJ9" t="n">
         <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL9" t="n">
         <v>0</v>
@@ -17205,7 +17387,7 @@
         <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>47682</v>
+        <v>0</v>
       </c>
       <c r="AO9" t="n">
         <v>0</v>
@@ -17214,12 +17396,33 @@
         <v>0</v>
       </c>
       <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>42493</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>5189</v>
+      </c>
+      <c r="AX9" t="n">
         <v>14</v>
       </c>
-      <c r="AR9" t="n">
+      <c r="AY9" t="n">
         <v>44934</v>
       </c>
-      <c r="AS9" t="n">
+      <c r="AZ9" t="n">
         <v>2762</v>
       </c>
     </row>
@@ -17240,7 +17443,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>13776</v>
+        <v>13750</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -17249,114 +17452,135 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
         <v>13137</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
       <c r="L10" t="n">
-        <v>13135</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>13098</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q10" t="n">
         <v>2</v>
       </c>
-      <c r="P10" t="n">
+      <c r="R10" t="n">
         <v>3376</v>
       </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>3357</v>
-      </c>
       <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3256</v>
+      </c>
+      <c r="U10" t="n">
         <v>10</v>
       </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>101</v>
+      </c>
+      <c r="Z10" t="n">
         <v>9</v>
       </c>
-      <c r="X10" t="n">
+      <c r="AA10" t="n">
         <v>1538</v>
       </c>
-      <c r="Y10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" t="n">
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
         <v>1538</v>
       </c>
-      <c r="AA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
         <v>13541</v>
       </c>
-      <c r="AD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>13541</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0</v>
-      </c>
       <c r="AH10" t="n">
         <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>13538</v>
       </c>
       <c r="AJ10" t="n">
         <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
         <v>10</v>
       </c>
-      <c r="AM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>45347</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ10" t="n">
+      <c r="AS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>45180</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>167</v>
+      </c>
+      <c r="AX10" t="n">
         <v>12</v>
       </c>
-      <c r="AR10" t="n">
+      <c r="AY10" t="n">
         <v>45369</v>
       </c>
-      <c r="AS10" t="n">
+      <c r="AZ10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17377,7 +17601,7 @@
         <v>26</v>
       </c>
       <c r="F11" t="n">
-        <v>6731</v>
+        <v>6728</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -17389,37 +17613,37 @@
         <v>3</v>
       </c>
       <c r="J11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" t="n">
         <v>11238</v>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>37</v>
       </c>
-      <c r="L11" t="n">
-        <v>11236</v>
-      </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>11232</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
         <v>2</v>
       </c>
-      <c r="P11" t="n">
+      <c r="R11" t="n">
         <v>2762</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="S11" t="n">
         <v>101</v>
       </c>
-      <c r="R11" t="n">
-        <v>2734</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>2541</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -17428,58 +17652,58 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>193</v>
+      </c>
+      <c r="Z11" t="n">
         <v>4</v>
       </c>
-      <c r="X11" t="n">
+      <c r="AA11" t="n">
         <v>2506</v>
       </c>
-      <c r="Y11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>2506</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0</v>
-      </c>
       <c r="AB11" t="n">
         <v>0</v>
       </c>
       <c r="AC11" t="n">
+        <v>2422</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>84</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
         <v>8004</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AH11" t="n">
         <v>3</v>
       </c>
-      <c r="AE11" t="n">
-        <v>8001</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG11" t="n">
+      <c r="AI11" t="n">
+        <v>7696</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>305</v>
+      </c>
+      <c r="AL11" t="n">
         <v>3</v>
       </c>
-      <c r="AH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>0</v>
-      </c>
       <c r="AM11" t="n">
         <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>31208</v>
+        <v>0</v>
       </c>
       <c r="AO11" t="n">
         <v>0</v>
@@ -17488,12 +17712,33 @@
         <v>0</v>
       </c>
       <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>30619</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>589</v>
+      </c>
+      <c r="AX11" t="n">
         <v>12</v>
       </c>
-      <c r="AR11" t="n">
+      <c r="AY11" t="n">
         <v>31077</v>
       </c>
-      <c r="AS11" t="n">
+      <c r="AZ11" t="n">
         <v>167</v>
       </c>
     </row>
@@ -17514,7 +17759,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>13740</v>
+        <v>13736</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -17523,19 +17768,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
         <v>12714</v>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
       <c r="L12" t="n">
-        <v>12714</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>11028</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -17544,93 +17789,114 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
+        <v>1686</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
         <v>2931</v>
       </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2910</v>
-      </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
         <v>13</v>
       </c>
-      <c r="W12" t="n">
+      <c r="Y12" t="n">
+        <v>210</v>
+      </c>
+      <c r="Z12" t="n">
         <v>8</v>
       </c>
-      <c r="X12" t="n">
+      <c r="AA12" t="n">
         <v>1834</v>
       </c>
-      <c r="Y12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>1643</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0</v>
-      </c>
       <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>1628</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF12" t="n">
         <v>191</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AG12" t="n">
         <v>11119</v>
       </c>
-      <c r="AD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>10241</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG12" t="n">
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>9584</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>657</v>
+      </c>
+      <c r="AL12" t="n">
         <v>878</v>
       </c>
-      <c r="AH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>0</v>
-      </c>
       <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
         <v>13</v>
       </c>
-      <c r="AN12" t="n">
-        <v>41248</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ12" t="n">
+      <c r="AT12" t="n">
+        <v>38676</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>2572</v>
+      </c>
+      <c r="AX12" t="n">
         <v>1078</v>
       </c>
-      <c r="AR12" t="n">
+      <c r="AY12" t="n">
         <v>42339</v>
       </c>
-      <c r="AS12" t="n">
+      <c r="AZ12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17651,7 +17917,7 @@
         <v>4</v>
       </c>
       <c r="F13" t="n">
-        <v>9128</v>
+        <v>9126</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -17660,19 +17926,19 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>11964</v>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>1686</v>
       </c>
-      <c r="L13" t="n">
-        <v>11964</v>
-      </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>11960</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -17681,19 +17947,19 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>3239</v>
+        <v>4</v>
       </c>
       <c r="Q13" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>3239</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>3085</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -17705,55 +17971,55 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>154</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
         <v>1374</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="AB13" t="n">
         <v>15</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AC13" t="n">
         <v>1374</v>
       </c>
-      <c r="AA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
         <v>11912</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AH13" t="n">
         <v>657</v>
       </c>
-      <c r="AE13" t="n">
-        <v>11910</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="n">
+      <c r="AI13" t="n">
+        <v>11901</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL13" t="n">
         <v>2</v>
       </c>
-      <c r="AH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>0</v>
-      </c>
       <c r="AM13" t="n">
         <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>37615</v>
+        <v>0</v>
       </c>
       <c r="AO13" t="n">
         <v>0</v>
@@ -17762,12 +18028,33 @@
         <v>0</v>
       </c>
       <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>37446</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>169</v>
+      </c>
+      <c r="AX13" t="n">
         <v>2</v>
       </c>
-      <c r="AR13" t="n">
+      <c r="AY13" t="n">
         <v>35045</v>
       </c>
-      <c r="AS13" t="n">
+      <c r="AZ13" t="n">
         <v>2572</v>
       </c>
     </row>
@@ -17788,7 +18075,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>18521</v>
+        <v>13569</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -17797,19 +18084,19 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>4952</v>
       </c>
       <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>12345</v>
       </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
       <c r="L14" t="n">
-        <v>12345</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>10041</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -17818,93 +18105,114 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
+        <v>2304</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
         <v>2466</v>
       </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2455</v>
-      </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>2016</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>439</v>
+      </c>
+      <c r="Z14" t="n">
         <v>10</v>
       </c>
-      <c r="X14" t="n">
+      <c r="AA14" t="n">
         <v>2841</v>
       </c>
-      <c r="Y14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>2840</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0</v>
-      </c>
       <c r="AB14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
+        <v>2832</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG14" t="n">
         <v>12106</v>
       </c>
-      <c r="AD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>12098</v>
-      </c>
-      <c r="AF14" t="n">
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>12077</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>8</v>
       </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>0</v>
-      </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL14" t="n">
         <v>0</v>
       </c>
       <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
         <v>9</v>
       </c>
-      <c r="AN14" t="n">
-        <v>48259</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ14" t="n">
+      <c r="AT14" t="n">
+        <v>40535</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>7724</v>
+      </c>
+      <c r="AX14" t="n">
         <v>11</v>
       </c>
-      <c r="AR14" t="n">
+      <c r="AY14" t="n">
         <v>48279</v>
       </c>
-      <c r="AS14" t="n">
+      <c r="AZ14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17925,7 +18233,7 @@
         <v>4952</v>
       </c>
       <c r="F15" t="n">
-        <v>11165</v>
+        <v>11159</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -17934,19 +18242,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>11024</v>
       </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
         <v>2304</v>
       </c>
-      <c r="L15" t="n">
-        <v>11024</v>
-      </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>11018</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -17955,19 +18263,19 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
         <v>2220</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="S15" t="n">
         <v>439</v>
       </c>
-      <c r="R15" t="n">
-        <v>2209</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1485</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -17976,49 +18284,49 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>724</v>
+      </c>
+      <c r="Z15" t="n">
         <v>11</v>
       </c>
-      <c r="X15" t="n">
+      <c r="AA15" t="n">
         <v>2340</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="AB15" t="n">
         <v>8</v>
       </c>
-      <c r="Z15" t="n">
-        <v>2340</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0</v>
-      </c>
       <c r="AC15" t="n">
+        <v>2339</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
         <v>7186</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AH15" t="n">
         <v>21</v>
       </c>
-      <c r="AE15" t="n">
-        <v>7186</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0</v>
-      </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>7175</v>
       </c>
       <c r="AJ15" t="n">
         <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AL15" t="n">
         <v>0</v>
@@ -18027,7 +18335,7 @@
         <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>33924</v>
+        <v>0</v>
       </c>
       <c r="AO15" t="n">
         <v>0</v>
@@ -18036,12 +18344,33 @@
         <v>0</v>
       </c>
       <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>33176</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>748</v>
+      </c>
+      <c r="AX15" t="n">
         <v>11</v>
       </c>
-      <c r="AR15" t="n">
+      <c r="AY15" t="n">
         <v>26211</v>
       </c>
-      <c r="AS15" t="n">
+      <c r="AZ15" t="n">
         <v>7724</v>
       </c>
     </row>
@@ -18062,7 +18391,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>8141</v>
+        <v>8120</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -18071,19 +18400,19 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>6244</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
       <c r="L16" t="n">
-        <v>6246</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>6244</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -18092,19 +18421,19 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
         <v>3203</v>
       </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>3590</v>
-      </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>3380</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -18113,72 +18442,93 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>210</v>
+      </c>
+      <c r="Z16" t="n">
         <v>13</v>
       </c>
-      <c r="X16" t="n">
+      <c r="AA16" t="n">
         <v>1679</v>
       </c>
-      <c r="Y16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" t="n">
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
         <v>1679</v>
       </c>
-      <c r="AA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="n">
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
         <v>6157</v>
       </c>
-      <c r="AD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>6157</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
       <c r="AH16" t="n">
         <v>0</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>6153</v>
       </c>
       <c r="AJ16" t="n">
         <v>0</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AL16" t="n">
         <v>0</v>
       </c>
       <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
         <v>2</v>
       </c>
-      <c r="AN16" t="n">
-        <v>25813</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ16" t="n">
+      <c r="AT16" t="n">
+        <v>25576</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>237</v>
+      </c>
+      <c r="AX16" t="n">
         <v>13</v>
       </c>
-      <c r="AR16" t="n">
+      <c r="AY16" t="n">
         <v>25828</v>
       </c>
-      <c r="AS16" t="n">
+      <c r="AZ16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18211,86 +18561,86 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>5481</v>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
         <v>2</v>
       </c>
-      <c r="L17" t="n">
+      <c r="M17" t="n">
         <v>5478</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
       <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>3</v>
       </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
       <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
         <v>1992</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="S17" t="n">
         <v>210</v>
       </c>
-      <c r="R17" t="n">
+      <c r="T17" t="n">
         <v>1845</v>
       </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
         <v>120</v>
       </c>
-      <c r="W17" t="n">
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
         <v>24</v>
       </c>
-      <c r="X17" t="n">
+      <c r="AA17" t="n">
         <v>1847</v>
       </c>
-      <c r="Y17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" t="n">
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
         <v>1847</v>
       </c>
-      <c r="AA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
         <v>5051</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AH17" t="n">
         <v>4</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AI17" t="n">
         <v>5045</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AJ17" t="n">
         <v>6</v>
       </c>
-      <c r="AG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>0</v>
-      </c>
       <c r="AK17" t="n">
         <v>0</v>
       </c>
@@ -18298,24 +18648,45 @@
         <v>0</v>
       </c>
       <c r="AM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
         <v>133</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AT17" t="n">
         <v>20302</v>
       </c>
-      <c r="AO17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ17" t="n">
+      <c r="AU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX17" t="n">
         <v>27</v>
       </c>
-      <c r="AR17" t="n">
+      <c r="AY17" t="n">
         <v>20225</v>
       </c>
-      <c r="AS17" t="n">
+      <c r="AZ17" t="n">
         <v>237</v>
       </c>
     </row>
@@ -18336,7 +18707,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>6234</v>
+        <v>6219</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -18345,19 +18716,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>5429</v>
       </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
       <c r="L18" t="n">
-        <v>5429</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>5225</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -18366,93 +18737,114 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
+        <v>204</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
         <v>3259</v>
       </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>3237</v>
-      </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>2317</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
         <v>10</v>
       </c>
-      <c r="W18" t="n">
+      <c r="Y18" t="n">
+        <v>920</v>
+      </c>
+      <c r="Z18" t="n">
         <v>12</v>
       </c>
-      <c r="X18" t="n">
+      <c r="AA18" t="n">
         <v>2128</v>
       </c>
-      <c r="Y18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>2128</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0</v>
-      </c>
       <c r="AB18" t="n">
         <v>0</v>
       </c>
       <c r="AC18" t="n">
+        <v>2127</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
         <v>6590</v>
       </c>
-      <c r="AD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>6590</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>0</v>
-      </c>
       <c r="AH18" t="n">
         <v>0</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>6580</v>
       </c>
       <c r="AJ18" t="n">
         <v>0</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL18" t="n">
         <v>0</v>
       </c>
       <c r="AM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
         <v>10</v>
       </c>
-      <c r="AN18" t="n">
-        <v>23618</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ18" t="n">
+      <c r="AT18" t="n">
+        <v>22468</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>1150</v>
+      </c>
+      <c r="AX18" t="n">
         <v>12</v>
       </c>
-      <c r="AR18" t="n">
+      <c r="AY18" t="n">
         <v>23640</v>
       </c>
-      <c r="AS18" t="n">
+      <c r="AZ18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18473,7 +18865,7 @@
         <v>15</v>
       </c>
       <c r="F19" t="n">
-        <v>5784</v>
+        <v>5781</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -18482,89 +18874,89 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>6605</v>
       </c>
-      <c r="K19" t="n">
+      <c r="L19" t="n">
         <v>204</v>
       </c>
-      <c r="L19" t="n">
-        <v>6047</v>
-      </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>6045</v>
       </c>
       <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>558</v>
       </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
       <c r="P19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
         <v>2501</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="S19" t="n">
         <v>920</v>
       </c>
-      <c r="R19" t="n">
-        <v>2290</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>2271</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
         <v>198</v>
       </c>
-      <c r="W19" t="n">
+      <c r="Y19" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z19" t="n">
         <v>13</v>
       </c>
-      <c r="X19" t="n">
+      <c r="AA19" t="n">
         <v>2827</v>
       </c>
-      <c r="Y19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z19" t="n">
+      <c r="AB19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC19" t="n">
         <v>2827</v>
       </c>
-      <c r="AA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="n">
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
         <v>5595</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AH19" t="n">
         <v>10</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AI19" t="n">
         <v>5588</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AJ19" t="n">
         <v>7</v>
       </c>
-      <c r="AG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>0</v>
-      </c>
       <c r="AK19" t="n">
         <v>0</v>
       </c>
@@ -18572,24 +18964,45 @@
         <v>0</v>
       </c>
       <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
         <v>766</v>
       </c>
-      <c r="AN19" t="n">
-        <v>22533</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ19" t="n">
+      <c r="AT19" t="n">
+        <v>22512</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AX19" t="n">
         <v>13</v>
       </c>
-      <c r="AR19" t="n">
+      <c r="AY19" t="n">
         <v>22162</v>
       </c>
-      <c r="AS19" t="n">
+      <c r="AZ19" t="n">
         <v>1150</v>
       </c>
     </row>
@@ -18610,7 +19023,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>6754</v>
+        <v>6750</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -18619,89 +19032,89 @@
         <v>47</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>7142</v>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
       <c r="L20" t="n">
-        <v>7034</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>6981</v>
       </c>
       <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>108</v>
       </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
       <c r="P20" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
         <v>3409</v>
       </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2926</v>
-      </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>2225</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
         <v>414</v>
       </c>
-      <c r="W20" t="n">
+      <c r="Y20" t="n">
+        <v>701</v>
+      </c>
+      <c r="Z20" t="n">
         <v>69</v>
       </c>
-      <c r="X20" t="n">
+      <c r="AA20" t="n">
         <v>3625</v>
       </c>
-      <c r="Y20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>3604</v>
-      </c>
-      <c r="AA20" t="n">
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>3571</v>
+      </c>
+      <c r="AD20" t="n">
         <v>21</v>
       </c>
-      <c r="AB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="n">
+      <c r="AE20" t="n">
+        <v>33</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="n">
         <v>5593</v>
       </c>
-      <c r="AD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE20" t="n">
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
         <v>5564</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AJ20" t="n">
         <v>29</v>
       </c>
-      <c r="AG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>0</v>
-      </c>
       <c r="AK20" t="n">
         <v>0</v>
       </c>
@@ -18709,24 +19122,45 @@
         <v>0</v>
       </c>
       <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
         <v>619</v>
       </c>
-      <c r="AN20" t="n">
-        <v>25882</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ20" t="n">
+      <c r="AT20" t="n">
+        <v>25091</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>791</v>
+      </c>
+      <c r="AX20" t="n">
         <v>69</v>
       </c>
-      <c r="AR20" t="n">
+      <c r="AY20" t="n">
         <v>26570</v>
       </c>
-      <c r="AS20" t="n">
+      <c r="AZ20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18759,86 +19193,86 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>6235</v>
       </c>
-      <c r="K21" t="n">
+      <c r="L21" t="n">
         <v>53</v>
       </c>
-      <c r="L21" t="n">
+      <c r="M21" t="n">
         <v>6225</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
       <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>10</v>
       </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
       <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
         <v>2729</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="S21" t="n">
         <v>701</v>
       </c>
-      <c r="R21" t="n">
+      <c r="T21" t="n">
         <v>2564</v>
       </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
         <v>155</v>
       </c>
-      <c r="W21" t="n">
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
         <v>10</v>
       </c>
-      <c r="X21" t="n">
+      <c r="AA21" t="n">
         <v>3011</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="AB21" t="n">
         <v>33</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="AC21" t="n">
         <v>3003</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AD21" t="n">
         <v>8</v>
       </c>
-      <c r="AB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC21" t="n">
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
         <v>6044</v>
       </c>
-      <c r="AD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE21" t="n">
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
         <v>6030</v>
       </c>
-      <c r="AF21" t="n">
+      <c r="AJ21" t="n">
         <v>14</v>
       </c>
-      <c r="AG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>0</v>
-      </c>
       <c r="AK21" t="n">
         <v>0</v>
       </c>
@@ -18846,24 +19280,45 @@
         <v>0</v>
       </c>
       <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
         <v>193</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AT21" t="n">
         <v>23633</v>
       </c>
-      <c r="AO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ21" t="n">
+      <c r="AU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" t="n">
         <v>10</v>
       </c>
-      <c r="AR21" t="n">
+      <c r="AY21" t="n">
         <v>23045</v>
       </c>
-      <c r="AS21" t="n">
+      <c r="AZ21" t="n">
         <v>791</v>
       </c>
     </row>
@@ -18884,7 +19339,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>9066</v>
+        <v>5494</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -18893,114 +19348,135 @@
         <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>3572</v>
       </c>
       <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>6012</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
       <c r="L22" t="n">
-        <v>6010</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>5416</v>
       </c>
       <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
         <v>2</v>
       </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
       <c r="P22" t="n">
+        <v>594</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>3178</v>
       </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>3151</v>
-      </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>2951</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
         <v>14</v>
       </c>
-      <c r="W22" t="n">
+      <c r="Y22" t="n">
+        <v>200</v>
+      </c>
+      <c r="Z22" t="n">
         <v>13</v>
       </c>
-      <c r="X22" t="n">
+      <c r="AA22" t="n">
         <v>2413</v>
       </c>
-      <c r="Y22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>2413</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>0</v>
-      </c>
       <c r="AB22" t="n">
         <v>0</v>
       </c>
       <c r="AC22" t="n">
+        <v>2411</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="n">
         <v>7752</v>
       </c>
-      <c r="AD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>7752</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>0</v>
-      </c>
       <c r="AH22" t="n">
         <v>0</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>5308</v>
       </c>
       <c r="AJ22" t="n">
         <v>0</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>2444</v>
       </c>
       <c r="AL22" t="n">
         <v>0</v>
       </c>
       <c r="AM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
         <v>18</v>
       </c>
-      <c r="AN22" t="n">
-        <v>28392</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ22" t="n">
+      <c r="AT22" t="n">
+        <v>21580</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>6812</v>
+      </c>
+      <c r="AX22" t="n">
         <v>13</v>
       </c>
-      <c r="AR22" t="n">
+      <c r="AY22" t="n">
         <v>28423</v>
       </c>
-      <c r="AS22" t="n">
+      <c r="AZ22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19030,89 +19506,89 @@
         <v>3870</v>
       </c>
       <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>2</v>
       </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
         <v>5918</v>
       </c>
-      <c r="K23" t="n">
+      <c r="L23" t="n">
         <v>594</v>
       </c>
-      <c r="L23" t="n">
+      <c r="M23" t="n">
         <v>5827</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
       <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>91</v>
       </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
       <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
         <v>4617</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="S23" t="n">
         <v>200</v>
       </c>
-      <c r="R23" t="n">
+      <c r="T23" t="n">
         <v>4415</v>
       </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>178</v>
       </c>
-      <c r="W23" t="n">
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
         <v>24</v>
       </c>
-      <c r="X23" t="n">
+      <c r="AA23" t="n">
         <v>1229</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="AB23" t="n">
         <v>2</v>
       </c>
-      <c r="Z23" t="n">
+      <c r="AC23" t="n">
         <v>1225</v>
       </c>
-      <c r="AA23" t="n">
+      <c r="AD23" t="n">
         <v>4</v>
       </c>
-      <c r="AB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC23" t="n">
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="n">
         <v>9819</v>
       </c>
-      <c r="AD23" t="n">
+      <c r="AH23" t="n">
         <v>2444</v>
       </c>
-      <c r="AE23" t="n">
+      <c r="AI23" t="n">
         <v>9803</v>
       </c>
-      <c r="AF23" t="n">
+      <c r="AJ23" t="n">
         <v>16</v>
       </c>
-      <c r="AG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>0</v>
-      </c>
       <c r="AK23" t="n">
         <v>0</v>
       </c>
@@ -19120,24 +19596,45 @@
         <v>0</v>
       </c>
       <c r="AM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
         <v>4159</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AT23" t="n">
         <v>27047</v>
       </c>
-      <c r="AO23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ23" t="n">
+      <c r="AU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX23" t="n">
         <v>26</v>
       </c>
-      <c r="AR23" t="n">
+      <c r="AY23" t="n">
         <v>24420</v>
       </c>
-      <c r="AS23" t="n">
+      <c r="AZ23" t="n">
         <v>6812</v>
       </c>
     </row>
@@ -19158,7 +19655,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>9823</v>
+        <v>9723</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -19167,114 +19664,135 @@
         <v>37</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>8586</v>
       </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
       <c r="L24" t="n">
-        <v>8579</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>7971</v>
       </c>
       <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>7</v>
       </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
       <c r="P24" t="n">
+        <v>608</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
         <v>3251</v>
       </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>3213</v>
-      </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>2285</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
         <v>20</v>
       </c>
-      <c r="W24" t="n">
+      <c r="Y24" t="n">
+        <v>928</v>
+      </c>
+      <c r="Z24" t="n">
         <v>18</v>
       </c>
-      <c r="X24" t="n">
+      <c r="AA24" t="n">
         <v>1382</v>
       </c>
-      <c r="Y24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>1382</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>0</v>
-      </c>
       <c r="AB24" t="n">
         <v>0</v>
       </c>
       <c r="AC24" t="n">
+        <v>1380</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
         <v>4607</v>
       </c>
-      <c r="AD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>4604</v>
-      </c>
-      <c r="AF24" t="n">
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>4583</v>
+      </c>
+      <c r="AJ24" t="n">
         <v>3</v>
       </c>
-      <c r="AG24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>0</v>
-      </c>
       <c r="AK24" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL24" t="n">
         <v>0</v>
       </c>
       <c r="AM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
         <v>67</v>
       </c>
-      <c r="AN24" t="n">
-        <v>27601</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ24" t="n">
+      <c r="AT24" t="n">
+        <v>25942</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>1659</v>
+      </c>
+      <c r="AX24" t="n">
         <v>18</v>
       </c>
-      <c r="AR24" t="n">
+      <c r="AY24" t="n">
         <v>27686</v>
       </c>
-      <c r="AS24" t="n">
+      <c r="AZ24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19307,85 +19825,85 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>9785</v>
       </c>
-      <c r="K25" t="n">
+      <c r="L25" t="n">
         <v>608</v>
       </c>
-      <c r="L25" t="n">
+      <c r="M25" t="n">
         <v>9772</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
       <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
         <v>13</v>
       </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
       <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>3884</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="S25" t="n">
         <v>928</v>
       </c>
-      <c r="R25" t="n">
+      <c r="T25" t="n">
         <v>3678</v>
       </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
         <v>184</v>
       </c>
-      <c r="W25" t="n">
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
         <v>22</v>
       </c>
-      <c r="X25" t="n">
+      <c r="AA25" t="n">
         <v>1293</v>
       </c>
-      <c r="Y25" t="n">
+      <c r="AB25" t="n">
         <v>2</v>
       </c>
-      <c r="Z25" t="n">
+      <c r="AC25" t="n">
         <v>1289</v>
       </c>
-      <c r="AA25" t="n">
+      <c r="AD25" t="n">
         <v>4</v>
       </c>
-      <c r="AB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC25" t="n">
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
         <v>7036</v>
       </c>
-      <c r="AD25" t="n">
+      <c r="AH25" t="n">
         <v>21</v>
       </c>
-      <c r="AE25" t="n">
+      <c r="AI25" t="n">
         <v>7035</v>
       </c>
-      <c r="AF25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK25" t="n">
         <v>0</v>
@@ -19394,24 +19912,45 @@
         <v>0</v>
       </c>
       <c r="AM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
         <v>203</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AT25" t="n">
         <v>29603</v>
       </c>
-      <c r="AO25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ25" t="n">
+      <c r="AU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX25" t="n">
         <v>22</v>
       </c>
-      <c r="AR25" t="n">
+      <c r="AY25" t="n">
         <v>28169</v>
       </c>
-      <c r="AS25" t="n">
+      <c r="AZ25" t="n">
         <v>1659</v>
       </c>
     </row>
@@ -19432,7 +19971,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>6095</v>
+        <v>6090</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -19441,114 +19980,135 @@
         <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>6721</v>
       </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
       <c r="L26" t="n">
-        <v>6717</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>6698</v>
       </c>
       <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>4</v>
       </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
       <c r="P26" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
         <v>4297</v>
       </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>4263</v>
-      </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>4075</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>3</v>
       </c>
-      <c r="W26" t="n">
+      <c r="Y26" t="n">
+        <v>188</v>
+      </c>
+      <c r="Z26" t="n">
         <v>31</v>
       </c>
-      <c r="X26" t="n">
+      <c r="AA26" t="n">
         <v>1342</v>
       </c>
-      <c r="Y26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>1342</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>0</v>
-      </c>
       <c r="AB26" t="n">
         <v>0</v>
       </c>
       <c r="AC26" t="n">
+        <v>1341</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
         <v>4691</v>
       </c>
-      <c r="AD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>4691</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>0</v>
-      </c>
       <c r="AH26" t="n">
         <v>0</v>
       </c>
       <c r="AI26" t="n">
-        <v>0</v>
+        <v>4688</v>
       </c>
       <c r="AJ26" t="n">
         <v>0</v>
       </c>
       <c r="AK26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL26" t="n">
         <v>0</v>
       </c>
       <c r="AM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS26" t="n">
         <v>8</v>
       </c>
-      <c r="AN26" t="n">
-        <v>23108</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ26" t="n">
+      <c r="AT26" t="n">
+        <v>22892</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>216</v>
+      </c>
+      <c r="AX26" t="n">
         <v>31</v>
       </c>
-      <c r="AR26" t="n">
+      <c r="AY26" t="n">
         <v>23147</v>
       </c>
-      <c r="AS26" t="n">
+      <c r="AZ26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19569,7 +20129,7 @@
         <v>5</v>
       </c>
       <c r="F27" t="n">
-        <v>5930</v>
+        <v>5925</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -19578,40 +20138,40 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" t="n">
         <v>6425</v>
       </c>
-      <c r="K27" t="n">
+      <c r="L27" t="n">
         <v>19</v>
       </c>
-      <c r="L27" t="n">
-        <v>6424</v>
-      </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>6351</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
+        <v>73</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
         <v>3632</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="S27" t="n">
         <v>188</v>
       </c>
-      <c r="R27" t="n">
-        <v>3592</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>3229</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -19620,58 +20180,58 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>363</v>
+      </c>
+      <c r="Z27" t="n">
         <v>40</v>
       </c>
-      <c r="X27" t="n">
+      <c r="AA27" t="n">
         <v>1566</v>
       </c>
-      <c r="Y27" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>1566</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>0</v>
-      </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC27" t="n">
+        <v>1565</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
         <v>4752</v>
       </c>
-      <c r="AD27" t="n">
+      <c r="AH27" t="n">
         <v>3</v>
       </c>
-      <c r="AE27" t="n">
-        <v>4751</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>0</v>
-      </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>4715</v>
       </c>
       <c r="AJ27" t="n">
         <v>0</v>
       </c>
       <c r="AK27" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AL27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM27" t="n">
         <v>0</v>
       </c>
       <c r="AN27" t="n">
-        <v>22263</v>
+        <v>0</v>
       </c>
       <c r="AO27" t="n">
         <v>0</v>
@@ -19680,12 +20240,33 @@
         <v>0</v>
       </c>
       <c r="AQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>21785</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>478</v>
+      </c>
+      <c r="AX27" t="n">
         <v>43</v>
       </c>
-      <c r="AR27" t="n">
+      <c r="AY27" t="n">
         <v>22090</v>
       </c>
-      <c r="AS27" t="n">
+      <c r="AZ27" t="n">
         <v>216</v>
       </c>
     </row>
@@ -19706,7 +20287,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>7870</v>
+        <v>7111</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -19715,114 +20296,135 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>759</v>
       </c>
       <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>7223</v>
       </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
       <c r="L28" t="n">
-        <v>7222</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>7146</v>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" t="n">
+        <v>76</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
         <v>3222</v>
       </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>3200</v>
-      </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>2879</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
         <v>7</v>
       </c>
-      <c r="W28" t="n">
+      <c r="Y28" t="n">
+        <v>321</v>
+      </c>
+      <c r="Z28" t="n">
         <v>15</v>
       </c>
-      <c r="X28" t="n">
+      <c r="AA28" t="n">
         <v>2194</v>
       </c>
-      <c r="Y28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>2194</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>0</v>
-      </c>
       <c r="AB28" t="n">
         <v>0</v>
       </c>
       <c r="AC28" t="n">
+        <v>1480</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>714</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
         <v>4442</v>
       </c>
-      <c r="AD28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>4442</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>0</v>
-      </c>
       <c r="AH28" t="n">
         <v>0</v>
       </c>
       <c r="AI28" t="n">
-        <v>0</v>
+        <v>4434</v>
       </c>
       <c r="AJ28" t="n">
         <v>0</v>
       </c>
       <c r="AK28" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AL28" t="n">
         <v>0</v>
       </c>
       <c r="AM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS28" t="n">
         <v>8</v>
       </c>
-      <c r="AN28" t="n">
-        <v>24928</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ28" t="n">
+      <c r="AT28" t="n">
+        <v>23050</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>1878</v>
+      </c>
+      <c r="AX28" t="n">
         <v>15</v>
       </c>
-      <c r="AR28" t="n">
+      <c r="AY28" t="n">
         <v>24951</v>
       </c>
-      <c r="AS28" t="n">
+      <c r="AZ28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19855,86 +20457,86 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>7562</v>
       </c>
-      <c r="K29" t="n">
+      <c r="L29" t="n">
         <v>76</v>
       </c>
-      <c r="L29" t="n">
+      <c r="M29" t="n">
         <v>7553</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
       <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>4</v>
       </c>
-      <c r="O29" t="n">
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
         <v>5</v>
       </c>
-      <c r="P29" t="n">
+      <c r="R29" t="n">
         <v>2996</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="S29" t="n">
         <v>321</v>
       </c>
-      <c r="R29" t="n">
+      <c r="T29" t="n">
         <v>2800</v>
       </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
         <v>180</v>
       </c>
-      <c r="W29" t="n">
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
         <v>16</v>
       </c>
-      <c r="X29" t="n">
+      <c r="AA29" t="n">
         <v>1341</v>
       </c>
-      <c r="Y29" t="n">
+      <c r="AB29" t="n">
         <v>714</v>
       </c>
-      <c r="Z29" t="n">
+      <c r="AC29" t="n">
         <v>1202</v>
       </c>
-      <c r="AA29" t="n">
+      <c r="AD29" t="n">
         <v>139</v>
       </c>
-      <c r="AB29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC29" t="n">
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
         <v>4456</v>
       </c>
-      <c r="AD29" t="n">
+      <c r="AH29" t="n">
         <v>8</v>
       </c>
-      <c r="AE29" t="n">
+      <c r="AI29" t="n">
         <v>4454</v>
       </c>
-      <c r="AF29" t="n">
+      <c r="AJ29" t="n">
         <v>2</v>
       </c>
-      <c r="AG29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>0</v>
-      </c>
       <c r="AK29" t="n">
         <v>0</v>
       </c>
@@ -19942,24 +20544,45 @@
         <v>0</v>
       </c>
       <c r="AM29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS29" t="n">
         <v>366</v>
       </c>
-      <c r="AN29" t="n">
+      <c r="AT29" t="n">
         <v>23327</v>
       </c>
-      <c r="AO29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ29" t="n">
+      <c r="AU29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX29" t="n">
         <v>21</v>
       </c>
-      <c r="AR29" t="n">
+      <c r="AY29" t="n">
         <v>21836</v>
       </c>
-      <c r="AS29" t="n">
+      <c r="AZ29" t="n">
         <v>1878</v>
       </c>
     </row>
@@ -19980,7 +20603,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>5983</v>
+        <v>5688</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -19989,19 +20612,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>295</v>
       </c>
       <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>5908</v>
       </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
       <c r="L30" t="n">
-        <v>5908</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>5892</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -20010,93 +20633,114 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
         <v>3972</v>
       </c>
-      <c r="Q30" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" t="n">
-        <v>3937</v>
-      </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>3582</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
         <v>12</v>
       </c>
-      <c r="W30" t="n">
+      <c r="Y30" t="n">
+        <v>355</v>
+      </c>
+      <c r="Z30" t="n">
         <v>23</v>
       </c>
-      <c r="X30" t="n">
+      <c r="AA30" t="n">
         <v>1249</v>
       </c>
-      <c r="Y30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z30" t="n">
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
         <v>1249</v>
       </c>
-      <c r="AA30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC30" t="n">
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="n">
         <v>3405</v>
       </c>
-      <c r="AD30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>3405</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>0</v>
-      </c>
       <c r="AH30" t="n">
         <v>0</v>
       </c>
       <c r="AI30" t="n">
-        <v>0</v>
+        <v>3404</v>
       </c>
       <c r="AJ30" t="n">
         <v>0</v>
       </c>
       <c r="AK30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL30" t="n">
         <v>0</v>
       </c>
       <c r="AM30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS30" t="n">
         <v>12</v>
       </c>
-      <c r="AN30" t="n">
-        <v>20482</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ30" t="n">
+      <c r="AT30" t="n">
+        <v>19815</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>667</v>
+      </c>
+      <c r="AX30" t="n">
         <v>23</v>
       </c>
-      <c r="AR30" t="n">
+      <c r="AY30" t="n">
         <v>20517</v>
       </c>
-      <c r="AS30" t="n">
+      <c r="AZ30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20126,89 +20770,89 @@
         <v>10</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
         <v>7316</v>
       </c>
-      <c r="K31" t="n">
+      <c r="L31" t="n">
         <v>16</v>
       </c>
-      <c r="L31" t="n">
+      <c r="M31" t="n">
         <v>7304</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
       <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>11</v>
       </c>
-      <c r="O31" t="n">
-        <v>1</v>
-      </c>
       <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
         <v>5374</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="S31" t="n">
         <v>355</v>
       </c>
-      <c r="R31" t="n">
+      <c r="T31" t="n">
         <v>5225</v>
       </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
         <v>130</v>
       </c>
-      <c r="W31" t="n">
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
         <v>19</v>
       </c>
-      <c r="X31" t="n">
+      <c r="AA31" t="n">
         <v>1314</v>
       </c>
-      <c r="Y31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z31" t="n">
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
         <v>1314</v>
       </c>
-      <c r="AA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC31" t="n">
+      <c r="AD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
         <v>3873</v>
       </c>
-      <c r="AD31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE31" t="n">
+      <c r="AH31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI31" t="n">
         <v>3871</v>
       </c>
-      <c r="AF31" t="n">
+      <c r="AJ31" t="n">
         <v>2</v>
       </c>
-      <c r="AG31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>0</v>
-      </c>
       <c r="AK31" t="n">
         <v>0</v>
       </c>
@@ -20216,24 +20860,45 @@
         <v>0</v>
       </c>
       <c r="AM31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS31" t="n">
         <v>153</v>
       </c>
-      <c r="AN31" t="n">
+      <c r="AT31" t="n">
         <v>24296</v>
       </c>
-      <c r="AO31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ31" t="n">
+      <c r="AU31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX31" t="n">
         <v>21</v>
       </c>
-      <c r="AR31" t="n">
+      <c r="AY31" t="n">
         <v>23803</v>
       </c>
-      <c r="AS31" t="n">
+      <c r="AZ31" t="n">
         <v>667</v>
       </c>
     </row>
@@ -20263,114 +20928,135 @@
         <v>7</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" t="n">
         <v>6726</v>
       </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
       <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
         <v>6712</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
       <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>14</v>
       </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
       <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
         <v>2226</v>
       </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>507</v>
-      </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>505</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
         <v>1710</v>
       </c>
-      <c r="W32" t="n">
+      <c r="Y32" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z32" t="n">
         <v>9</v>
       </c>
-      <c r="X32" t="n">
+      <c r="AA32" t="n">
         <v>762</v>
       </c>
-      <c r="Y32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z32" t="n">
+      <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
         <v>761</v>
       </c>
-      <c r="AA32" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC32" t="n">
+      <c r="AD32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="n">
         <v>3881</v>
       </c>
-      <c r="AD32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE32" t="n">
+      <c r="AH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="n">
         <v>3879</v>
       </c>
-      <c r="AF32" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK32" t="n">
         <v>0</v>
       </c>
       <c r="AL32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS32" t="n">
         <v>1733</v>
       </c>
-      <c r="AN32" t="n">
-        <v>17330</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ32" t="n">
+      <c r="AT32" t="n">
+        <v>17328</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX32" t="n">
         <v>11</v>
       </c>
-      <c r="AR32" t="n">
+      <c r="AY32" t="n">
         <v>19074</v>
       </c>
-      <c r="AS32" t="n">
+      <c r="AZ32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20400,89 +21086,89 @@
         <v>223</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" t="n">
         <v>6379</v>
       </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
       <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
         <v>6325</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
       <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>53</v>
       </c>
-      <c r="O33" t="n">
-        <v>1</v>
-      </c>
       <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
         <v>4239</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="S33" t="n">
         <v>2</v>
       </c>
-      <c r="R33" t="n">
+      <c r="T33" t="n">
         <v>3076</v>
       </c>
-      <c r="S33" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0</v>
-      </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
         <v>1149</v>
       </c>
-      <c r="W33" t="n">
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
         <v>14</v>
       </c>
-      <c r="X33" t="n">
+      <c r="AA33" t="n">
         <v>879</v>
       </c>
-      <c r="Y33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z33" t="n">
+      <c r="AB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="n">
         <v>878</v>
       </c>
-      <c r="AA33" t="n">
+      <c r="AD33" t="n">
         <v>2</v>
       </c>
-      <c r="AB33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC33" t="n">
+      <c r="AE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="n">
         <v>3877</v>
       </c>
-      <c r="AD33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE33" t="n">
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="n">
         <v>3875</v>
       </c>
-      <c r="AF33" t="n">
+      <c r="AJ33" t="n">
         <v>2</v>
       </c>
-      <c r="AG33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>0</v>
-      </c>
       <c r="AK33" t="n">
         <v>0</v>
       </c>
@@ -20490,24 +21176,45 @@
         <v>0</v>
       </c>
       <c r="AM33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS33" t="n">
         <v>1428</v>
       </c>
-      <c r="AN33" t="n">
+      <c r="AT33" t="n">
         <v>18354</v>
       </c>
-      <c r="AO33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ33" t="n">
+      <c r="AU33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX33" t="n">
         <v>16</v>
       </c>
-      <c r="AR33" t="n">
+      <c r="AY33" t="n">
         <v>19796</v>
       </c>
-      <c r="AS33" t="n">
+      <c r="AZ33" t="n">
         <v>2</v>
       </c>
     </row>
@@ -20528,7 +21235,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>5731</v>
+        <v>5550</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -20537,19 +21244,19 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
+        <v>181</v>
+      </c>
+      <c r="J34" t="n">
         <v>3</v>
       </c>
-      <c r="J34" t="n">
+      <c r="K34" t="n">
         <v>5214</v>
       </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
       <c r="L34" t="n">
-        <v>5214</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>3474</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -20558,93 +21265,114 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
+        <v>1740</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
         <v>4168</v>
       </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>3834</v>
-      </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>3556</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
         <v>2</v>
       </c>
-      <c r="W34" t="n">
+      <c r="Y34" t="n">
+        <v>278</v>
+      </c>
+      <c r="Z34" t="n">
         <v>332</v>
       </c>
-      <c r="X34" t="n">
+      <c r="AA34" t="n">
         <v>1070</v>
       </c>
-      <c r="Y34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>1070</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>0</v>
-      </c>
       <c r="AB34" t="n">
         <v>0</v>
       </c>
       <c r="AC34" t="n">
+        <v>1067</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="n">
         <v>3936</v>
       </c>
-      <c r="AD34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>1936</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>0</v>
-      </c>
       <c r="AH34" t="n">
         <v>0</v>
       </c>
       <c r="AI34" t="n">
-        <v>0</v>
+        <v>1931</v>
       </c>
       <c r="AJ34" t="n">
         <v>0</v>
       </c>
       <c r="AK34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL34" t="n">
         <v>0</v>
       </c>
       <c r="AM34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS34" t="n">
         <v>2</v>
       </c>
-      <c r="AN34" t="n">
-        <v>19785</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ34" t="n">
+      <c r="AT34" t="n">
+        <v>17578</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>2207</v>
+      </c>
+      <c r="AX34" t="n">
         <v>335</v>
       </c>
-      <c r="AR34" t="n">
+      <c r="AY34" t="n">
         <v>20122</v>
       </c>
-      <c r="AS34" t="n">
+      <c r="AZ34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20677,111 +21405,132 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>5890</v>
       </c>
-      <c r="K35" t="n">
+      <c r="L35" t="n">
         <v>1740</v>
       </c>
-      <c r="L35" t="n">
+      <c r="M35" t="n">
         <v>5878</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
       <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>21</v>
       </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
       <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
         <v>2766</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="S35" t="n">
         <v>278</v>
       </c>
-      <c r="R35" t="n">
+      <c r="T35" t="n">
         <v>2458</v>
       </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>295</v>
       </c>
-      <c r="W35" t="n">
+      <c r="Y35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="n">
         <v>13</v>
       </c>
-      <c r="X35" t="n">
+      <c r="AA35" t="n">
         <v>1246</v>
       </c>
-      <c r="Y35" t="n">
+      <c r="AB35" t="n">
         <v>3</v>
       </c>
-      <c r="Z35" t="n">
+      <c r="AC35" t="n">
         <v>1245</v>
       </c>
-      <c r="AA35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC35" t="n">
+      <c r="AD35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="n">
         <v>4408</v>
       </c>
-      <c r="AD35" t="n">
+      <c r="AH35" t="n">
         <v>5</v>
       </c>
-      <c r="AE35" t="n">
+      <c r="AI35" t="n">
         <v>4401</v>
       </c>
-      <c r="AF35" t="n">
+      <c r="AJ35" t="n">
         <v>5</v>
       </c>
-      <c r="AG35" t="n">
+      <c r="AK35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL35" t="n">
         <v>2</v>
       </c>
-      <c r="AH35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>0</v>
-      </c>
       <c r="AM35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS35" t="n">
         <v>395</v>
       </c>
-      <c r="AN35" t="n">
+      <c r="AT35" t="n">
         <v>21477</v>
       </c>
-      <c r="AO35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ35" t="n">
+      <c r="AU35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX35" t="n">
         <v>15</v>
       </c>
-      <c r="AR35" t="n">
+      <c r="AY35" t="n">
         <v>19608</v>
       </c>
-      <c r="AS35" t="n">
+      <c r="AZ35" t="n">
         <v>2207</v>
       </c>
     </row>
@@ -20802,7 +21551,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>5975</v>
+        <v>5899</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -20811,114 +21560,135 @@
         <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="J36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" t="n">
         <v>6617</v>
       </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
       <c r="L36" t="n">
-        <v>6616</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>6604</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
         <v>1805</v>
       </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1670</v>
-      </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>1522</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
         <v>99</v>
       </c>
-      <c r="W36" t="n">
+      <c r="Y36" t="n">
+        <v>148</v>
+      </c>
+      <c r="Z36" t="n">
         <v>36</v>
       </c>
-      <c r="X36" t="n">
+      <c r="AA36" t="n">
         <v>1314</v>
       </c>
-      <c r="Y36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z36" t="n">
+      <c r="AB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC36" t="n">
         <v>1314</v>
       </c>
-      <c r="AA36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC36" t="n">
+      <c r="AD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="n">
         <v>4285</v>
       </c>
-      <c r="AD36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>4284</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>0</v>
-      </c>
       <c r="AH36" t="n">
         <v>0</v>
       </c>
       <c r="AI36" t="n">
-        <v>0</v>
+        <v>4273</v>
       </c>
       <c r="AJ36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK36" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AL36" t="n">
         <v>0</v>
       </c>
       <c r="AM36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS36" t="n">
         <v>102</v>
       </c>
-      <c r="AN36" t="n">
-        <v>19859</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ36" t="n">
+      <c r="AT36" t="n">
+        <v>19612</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>247</v>
+      </c>
+      <c r="AX36" t="n">
         <v>38</v>
       </c>
-      <c r="AR36" t="n">
+      <c r="AY36" t="n">
         <v>19999</v>
       </c>
-      <c r="AS36" t="n">
+      <c r="AZ36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20939,7 +21709,7 @@
         <v>76</v>
       </c>
       <c r="F37" t="n">
-        <v>6273</v>
+        <v>6264</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -20948,19 +21718,19 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" t="n">
         <v>7283</v>
       </c>
-      <c r="K37" t="n">
+      <c r="L37" t="n">
         <v>12</v>
       </c>
-      <c r="L37" t="n">
-        <v>247</v>
-      </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -20969,19 +21739,19 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>2735</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="S37" t="n">
         <v>148</v>
       </c>
-      <c r="R37" t="n">
-        <v>2712</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>2407</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -20990,49 +21760,49 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>305</v>
+      </c>
+      <c r="Z37" t="n">
         <v>23</v>
       </c>
-      <c r="X37" t="n">
+      <c r="AA37" t="n">
         <v>1347</v>
       </c>
-      <c r="Y37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>1347</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>0</v>
-      </c>
       <c r="AB37" t="n">
         <v>0</v>
       </c>
       <c r="AC37" t="n">
+        <v>1345</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="n">
         <v>4463</v>
       </c>
-      <c r="AD37" t="n">
+      <c r="AH37" t="n">
         <v>11</v>
       </c>
-      <c r="AE37" t="n">
-        <v>4463</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>0</v>
-      </c>
       <c r="AI37" t="n">
-        <v>0</v>
+        <v>4462</v>
       </c>
       <c r="AJ37" t="n">
         <v>0</v>
       </c>
       <c r="AK37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL37" t="n">
         <v>0</v>
@@ -21041,7 +21811,7 @@
         <v>0</v>
       </c>
       <c r="AN37" t="n">
-        <v>21976</v>
+        <v>0</v>
       </c>
       <c r="AO37" t="n">
         <v>0</v>
@@ -21050,12 +21820,33 @@
         <v>0</v>
       </c>
       <c r="AQ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>21751</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>225</v>
+      </c>
+      <c r="AX37" t="n">
         <v>24</v>
       </c>
-      <c r="AR37" t="n">
+      <c r="AY37" t="n">
         <v>21885</v>
       </c>
-      <c r="AS37" t="n">
+      <c r="AZ37" t="n">
         <v>247</v>
       </c>
     </row>
@@ -21076,7 +21867,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>5979</v>
+        <v>5977</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -21085,19 +21876,19 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>6569</v>
       </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
       <c r="L38" t="n">
-        <v>6569</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>6557</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -21106,19 +21897,19 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
         <v>2166</v>
       </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>2058</v>
-      </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>1668</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -21127,72 +21918,93 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>390</v>
+      </c>
+      <c r="Z38" t="n">
         <v>22</v>
       </c>
-      <c r="X38" t="n">
+      <c r="AA38" t="n">
         <v>1432</v>
       </c>
-      <c r="Y38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>1432</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>0</v>
-      </c>
       <c r="AB38" t="n">
         <v>0</v>
       </c>
       <c r="AC38" t="n">
+        <v>1429</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="n">
         <v>4616</v>
       </c>
-      <c r="AD38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>4616</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>0</v>
-      </c>
       <c r="AH38" t="n">
         <v>0</v>
       </c>
       <c r="AI38" t="n">
-        <v>0</v>
+        <v>4611</v>
       </c>
       <c r="AJ38" t="n">
         <v>0</v>
       </c>
       <c r="AK38" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL38" t="n">
         <v>0</v>
       </c>
       <c r="AM38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS38" t="n">
         <v>405</v>
       </c>
-      <c r="AN38" t="n">
-        <v>20335</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ38" t="n">
+      <c r="AT38" t="n">
+        <v>20242</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>93</v>
+      </c>
+      <c r="AX38" t="n">
         <v>22</v>
       </c>
-      <c r="AR38" t="n">
+      <c r="AY38" t="n">
         <v>20762</v>
       </c>
-      <c r="AS38" t="n">
+      <c r="AZ38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21225,111 +22037,132 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>6389</v>
       </c>
-      <c r="K39" t="n">
+      <c r="L39" t="n">
         <v>3</v>
       </c>
-      <c r="L39" t="n">
+      <c r="M39" t="n">
         <v>6381</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
       <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>6</v>
       </c>
-      <c r="O39" t="n">
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
         <v>2</v>
       </c>
-      <c r="P39" t="n">
+      <c r="R39" t="n">
         <v>2233</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="S39" t="n">
         <v>88</v>
       </c>
-      <c r="R39" t="n">
+      <c r="T39" t="n">
         <v>2029</v>
       </c>
-      <c r="S39" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0</v>
-      </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
         <v>185</v>
       </c>
-      <c r="W39" t="n">
+      <c r="Y39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z39" t="n">
         <v>19</v>
       </c>
-      <c r="X39" t="n">
+      <c r="AA39" t="n">
         <v>2258</v>
       </c>
-      <c r="Y39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z39" t="n">
+      <c r="AB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" t="n">
         <v>2157</v>
       </c>
-      <c r="AA39" t="n">
+      <c r="AD39" t="n">
         <v>101</v>
       </c>
-      <c r="AB39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC39" t="n">
+      <c r="AE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="n">
         <v>4682</v>
       </c>
-      <c r="AD39" t="n">
+      <c r="AH39" t="n">
         <v>2</v>
       </c>
-      <c r="AE39" t="n">
+      <c r="AI39" t="n">
         <v>4680</v>
       </c>
-      <c r="AF39" t="n">
+      <c r="AJ39" t="n">
         <v>2</v>
       </c>
-      <c r="AG39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH39" t="n">
+      <c r="AK39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM39" t="n">
         <v>716</v>
       </c>
-      <c r="AI39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ39" t="n">
+      <c r="AN39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO39" t="n">
         <v>716</v>
       </c>
-      <c r="AK39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM39" t="n">
+      <c r="AP39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS39" t="n">
         <v>309</v>
       </c>
-      <c r="AN39" t="n">
+      <c r="AT39" t="n">
         <v>21617</v>
       </c>
-      <c r="AO39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ39" t="n">
+      <c r="AU39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX39" t="n">
         <v>21</v>
       </c>
-      <c r="AR39" t="n">
+      <c r="AY39" t="n">
         <v>21854</v>
       </c>
-      <c r="AS39" t="n">
+      <c r="AZ39" t="n">
         <v>93</v>
       </c>
     </row>
@@ -21350,7 +22183,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>6295</v>
+        <v>6290</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -21359,40 +22192,40 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>8607</v>
       </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
       <c r="L40" t="n">
-        <v>8606</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>6614</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
+        <v>1992</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
         <v>3479</v>
       </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>3431</v>
-      </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>2837</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -21401,72 +22234,93 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>594</v>
+      </c>
+      <c r="Z40" t="n">
         <v>47</v>
       </c>
-      <c r="X40" t="n">
+      <c r="AA40" t="n">
         <v>1644</v>
       </c>
-      <c r="Y40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>1644</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>0</v>
-      </c>
       <c r="AB40" t="n">
         <v>0</v>
       </c>
       <c r="AC40" t="n">
+        <v>1323</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>321</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="n">
         <v>4411</v>
       </c>
-      <c r="AD40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>4410</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>1</v>
-      </c>
       <c r="AH40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>4409</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM40" t="n">
         <v>1916</v>
       </c>
-      <c r="AI40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>1097</v>
-      </c>
-      <c r="AK40" t="n">
+      <c r="AN40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>1095</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ40" t="n">
         <v>819</v>
       </c>
-      <c r="AL40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>25483</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ40" t="n">
+      <c r="AR40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>22568</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>2915</v>
+      </c>
+      <c r="AX40" t="n">
         <v>868</v>
       </c>
-      <c r="AR40" t="n">
+      <c r="AY40" t="n">
         <v>26351</v>
       </c>
-      <c r="AS40" t="n">
+      <c r="AZ40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21487,7 +22341,7 @@
         <v>5</v>
       </c>
       <c r="F41" t="n">
-        <v>6377</v>
+        <v>6327</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -21496,114 +22350,135 @@
         <v>50</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>8234</v>
       </c>
-      <c r="K41" t="n">
+      <c r="L41" t="n">
         <v>1992</v>
       </c>
-      <c r="L41" t="n">
-        <v>8234</v>
-      </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>6145</v>
       </c>
       <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>2089</v>
       </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
       <c r="P41" t="n">
+        <v>2089</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
         <v>2309</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="S41" t="n">
         <v>472</v>
       </c>
-      <c r="R41" t="n">
-        <v>2279</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>1694</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
         <v>585</v>
       </c>
-      <c r="W41" t="n">
+      <c r="Y41" t="n">
+        <v>585</v>
+      </c>
+      <c r="Z41" t="n">
         <v>30</v>
       </c>
-      <c r="X41" t="n">
+      <c r="AA41" t="n">
         <v>555</v>
       </c>
-      <c r="Y41" t="n">
+      <c r="AB41" t="n">
         <v>321</v>
       </c>
-      <c r="Z41" t="n">
-        <v>555</v>
-      </c>
-      <c r="AA41" t="n">
+      <c r="AC41" t="n">
+        <v>553</v>
+      </c>
+      <c r="AD41" t="n">
         <v>2</v>
       </c>
-      <c r="AB41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC41" t="n">
+      <c r="AE41" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="n">
         <v>4524</v>
       </c>
-      <c r="AD41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>4524</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>0</v>
-      </c>
       <c r="AH41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>4523</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM41" t="n">
         <v>472</v>
       </c>
-      <c r="AI41" t="n">
+      <c r="AN41" t="n">
         <v>2</v>
       </c>
-      <c r="AJ41" t="n">
+      <c r="AO41" t="n">
         <v>472</v>
       </c>
-      <c r="AK41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM41" t="n">
+      <c r="AP41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS41" t="n">
         <v>2726</v>
       </c>
-      <c r="AN41" t="n">
-        <v>22440</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ41" t="n">
+      <c r="AT41" t="n">
+        <v>19714</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>2726</v>
+      </c>
+      <c r="AX41" t="n">
         <v>31</v>
       </c>
-      <c r="AR41" t="n">
+      <c r="AY41" t="n">
         <v>19678</v>
       </c>
-      <c r="AS41" t="n">
+      <c r="AZ41" t="n">
         <v>2793</v>
       </c>
     </row>

--- a/data/Resume Data - Scrubbed.xlsx
+++ b/data/Resume Data - Scrubbed.xlsx
@@ -15918,12 +15918,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Air Force nominations</t>
+          <t>Air Force, nominations</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Air Force nominations, carryover</t>
+          <t>Air Force, nominations, carryover</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -15953,12 +15953,12 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Army nominations</t>
+          <t>Army, nominations</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Army nominations, carryover</t>
+          <t>Army, nominations, carryover</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -15988,12 +15988,12 @@
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Civilian nominations</t>
+          <t>Civilian, nominations</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Civilian nominations, carryover</t>
+          <t>Civilian, nominations, carryover</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
@@ -16033,12 +16033,12 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Marine Corps nominations</t>
+          <t>Marine Corps, nominations</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Marine Corps nominations, carryover</t>
+          <t>Marine Corps, nominations, carryover</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
@@ -16063,12 +16063,12 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>Navy nominations</t>
+          <t>Navy, nominations</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Navy nominations, carryover</t>
+          <t>Navy, nominations, carryover</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
@@ -16093,12 +16093,12 @@
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>Space Force nominations</t>
+          <t>Space Force, nominations</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>Space Force nominations, carryover</t>
+          <t>Space Force, nominations, carryover</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
@@ -16118,47 +16118,47 @@
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>Summary, failed</t>
+          <t>Total, failed</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>Summary, returned</t>
+          <t>Total, returned</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>Summary, confirmed</t>
+          <t>Total, confirmed</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>Summary, recess reappointment</t>
+          <t>Total, recess reappointment</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>Summary, rejected</t>
+          <t>Total, rejected</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>Summary, unconfirmed</t>
+          <t>Total, unconfirmed</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>Summary, withdrawn</t>
+          <t>Total, withdrawn</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>Total nominations</t>
+          <t>Total, nominations</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>Total nominations, carryover</t>
+          <t>Total, nominations, carryover</t>
         </is>
       </c>
     </row>
@@ -16331,7 +16331,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>11844</v>
+        <v>11818</v>
       </c>
       <c r="E3" t="n">
         <v>26</v>
@@ -16647,7 +16647,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>14600</v>
+        <v>12246</v>
       </c>
       <c r="E5" t="n">
         <v>2354</v>
@@ -16668,7 +16668,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>10810</v>
+        <v>9918</v>
       </c>
       <c r="L5" t="n">
         <v>892</v>
@@ -16689,7 +16689,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>2115</v>
+        <v>2046</v>
       </c>
       <c r="S5" t="n">
         <v>69</v>
@@ -16716,7 +16716,7 @@
         <v>8</v>
       </c>
       <c r="AA5" t="n">
-        <v>2494</v>
+        <v>2132</v>
       </c>
       <c r="AB5" t="n">
         <v>362</v>
@@ -16963,7 +16963,7 @@
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>15304</v>
+        <v>12349</v>
       </c>
       <c r="E7" t="n">
         <v>2955</v>
@@ -16984,7 +16984,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>12861</v>
+        <v>10500</v>
       </c>
       <c r="L7" t="n">
         <v>2361</v>
@@ -17005,7 +17005,7 @@
         <v>1</v>
       </c>
       <c r="R7" t="n">
-        <v>2792</v>
+        <v>2670</v>
       </c>
       <c r="S7" t="n">
         <v>122</v>
@@ -17032,7 +17032,7 @@
         <v>11</v>
       </c>
       <c r="AA7" t="n">
-        <v>1596</v>
+        <v>1586</v>
       </c>
       <c r="AB7" t="n">
         <v>10</v>
@@ -17050,7 +17050,7 @@
         <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>10205</v>
+        <v>10159</v>
       </c>
       <c r="AH7" t="n">
         <v>46</v>
@@ -17279,7 +17279,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>13400</v>
+        <v>13373</v>
       </c>
       <c r="E9" t="n">
         <v>27</v>
@@ -17300,7 +17300,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>17493</v>
+        <v>15052</v>
       </c>
       <c r="L9" t="n">
         <v>2441</v>
@@ -17321,7 +17321,7 @@
         <v>2</v>
       </c>
       <c r="R9" t="n">
-        <v>2443</v>
+        <v>2364</v>
       </c>
       <c r="S9" t="n">
         <v>79</v>
@@ -17348,7 +17348,7 @@
         <v>11</v>
       </c>
       <c r="AA9" t="n">
-        <v>2786</v>
+        <v>2775</v>
       </c>
       <c r="AB9" t="n">
         <v>11</v>
@@ -17366,7 +17366,7 @@
         <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>11574</v>
+        <v>11370</v>
       </c>
       <c r="AH9" t="n">
         <v>204</v>
@@ -17595,7 +17595,7 @@
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>6734</v>
+        <v>6708</v>
       </c>
       <c r="E11" t="n">
         <v>26</v>
@@ -17616,7 +17616,7 @@
         <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>11238</v>
+        <v>11201</v>
       </c>
       <c r="L11" t="n">
         <v>37</v>
@@ -17637,7 +17637,7 @@
         <v>2</v>
       </c>
       <c r="R11" t="n">
-        <v>2762</v>
+        <v>2661</v>
       </c>
       <c r="S11" t="n">
         <v>101</v>
@@ -17682,7 +17682,7 @@
         <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>8004</v>
+        <v>8001</v>
       </c>
       <c r="AH11" t="n">
         <v>3</v>
@@ -17911,7 +17911,7 @@
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>9128</v>
+        <v>9124</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -17932,7 +17932,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>11964</v>
+        <v>10278</v>
       </c>
       <c r="L13" t="n">
         <v>1686</v>
@@ -17953,7 +17953,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>3239</v>
+        <v>3029</v>
       </c>
       <c r="S13" t="n">
         <v>210</v>
@@ -17980,7 +17980,7 @@
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>1374</v>
+        <v>1359</v>
       </c>
       <c r="AB13" t="n">
         <v>15</v>
@@ -17998,7 +17998,7 @@
         <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>11912</v>
+        <v>11255</v>
       </c>
       <c r="AH13" t="n">
         <v>657</v>
@@ -18227,7 +18227,7 @@
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>11165</v>
+        <v>6213</v>
       </c>
       <c r="E15" t="n">
         <v>4952</v>
@@ -18248,7 +18248,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>11024</v>
+        <v>8720</v>
       </c>
       <c r="L15" t="n">
         <v>2304</v>
@@ -18269,7 +18269,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>2220</v>
+        <v>1781</v>
       </c>
       <c r="S15" t="n">
         <v>439</v>
@@ -18296,7 +18296,7 @@
         <v>11</v>
       </c>
       <c r="AA15" t="n">
-        <v>2340</v>
+        <v>2332</v>
       </c>
       <c r="AB15" t="n">
         <v>8</v>
@@ -18314,7 +18314,7 @@
         <v>0</v>
       </c>
       <c r="AG15" t="n">
-        <v>7186</v>
+        <v>7165</v>
       </c>
       <c r="AH15" t="n">
         <v>21</v>
@@ -18543,7 +18543,7 @@
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>6091</v>
+        <v>6070</v>
       </c>
       <c r="E17" t="n">
         <v>21</v>
@@ -18564,7 +18564,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>5481</v>
+        <v>5479</v>
       </c>
       <c r="L17" t="n">
         <v>2</v>
@@ -18585,7 +18585,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>1992</v>
+        <v>1782</v>
       </c>
       <c r="S17" t="n">
         <v>210</v>
@@ -18630,7 +18630,7 @@
         <v>0</v>
       </c>
       <c r="AG17" t="n">
-        <v>5051</v>
+        <v>5047</v>
       </c>
       <c r="AH17" t="n">
         <v>4</v>
@@ -18859,7 +18859,7 @@
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>5784</v>
+        <v>5769</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -18880,7 +18880,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>6605</v>
+        <v>6401</v>
       </c>
       <c r="L19" t="n">
         <v>204</v>
@@ -18901,7 +18901,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>2501</v>
+        <v>1581</v>
       </c>
       <c r="S19" t="n">
         <v>920</v>
@@ -18928,7 +18928,7 @@
         <v>13</v>
       </c>
       <c r="AA19" t="n">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="AB19" t="n">
         <v>1</v>
@@ -18946,7 +18946,7 @@
         <v>0</v>
       </c>
       <c r="AG19" t="n">
-        <v>5595</v>
+        <v>5585</v>
       </c>
       <c r="AH19" t="n">
         <v>10</v>
@@ -19175,7 +19175,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>5817</v>
+        <v>5813</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -19196,7 +19196,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>6235</v>
+        <v>6182</v>
       </c>
       <c r="L21" t="n">
         <v>53</v>
@@ -19217,7 +19217,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>2729</v>
+        <v>2028</v>
       </c>
       <c r="S21" t="n">
         <v>701</v>
@@ -19244,7 +19244,7 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>3011</v>
+        <v>2978</v>
       </c>
       <c r="AB21" t="n">
         <v>33</v>
@@ -19491,7 +19491,7 @@
         <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>9649</v>
+        <v>6077</v>
       </c>
       <c r="E23" t="n">
         <v>3572</v>
@@ -19512,7 +19512,7 @@
         <v>2</v>
       </c>
       <c r="K23" t="n">
-        <v>5918</v>
+        <v>5324</v>
       </c>
       <c r="L23" t="n">
         <v>594</v>
@@ -19533,7 +19533,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4617</v>
+        <v>4417</v>
       </c>
       <c r="S23" t="n">
         <v>200</v>
@@ -19560,7 +19560,7 @@
         <v>24</v>
       </c>
       <c r="AA23" t="n">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="AB23" t="n">
         <v>2</v>
@@ -19578,7 +19578,7 @@
         <v>0</v>
       </c>
       <c r="AG23" t="n">
-        <v>9819</v>
+        <v>7375</v>
       </c>
       <c r="AH23" t="n">
         <v>2444</v>
@@ -19807,7 +19807,7 @@
         <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>7830</v>
+        <v>7730</v>
       </c>
       <c r="E25" t="n">
         <v>100</v>
@@ -19828,7 +19828,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>9785</v>
+        <v>9177</v>
       </c>
       <c r="L25" t="n">
         <v>608</v>
@@ -19849,7 +19849,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>3884</v>
+        <v>2956</v>
       </c>
       <c r="S25" t="n">
         <v>928</v>
@@ -19876,7 +19876,7 @@
         <v>22</v>
       </c>
       <c r="AA25" t="n">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="AB25" t="n">
         <v>2</v>
@@ -19894,7 +19894,7 @@
         <v>0</v>
       </c>
       <c r="AG25" t="n">
-        <v>7036</v>
+        <v>7015</v>
       </c>
       <c r="AH25" t="n">
         <v>21</v>
@@ -20123,7 +20123,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>5931</v>
+        <v>5926</v>
       </c>
       <c r="E27" t="n">
         <v>5</v>
@@ -20144,7 +20144,7 @@
         <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>6425</v>
+        <v>6406</v>
       </c>
       <c r="L27" t="n">
         <v>19</v>
@@ -20165,7 +20165,7 @@
         <v>1</v>
       </c>
       <c r="R27" t="n">
-        <v>3632</v>
+        <v>3444</v>
       </c>
       <c r="S27" t="n">
         <v>188</v>
@@ -20192,7 +20192,7 @@
         <v>40</v>
       </c>
       <c r="AA27" t="n">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="AB27" t="n">
         <v>1</v>
@@ -20210,7 +20210,7 @@
         <v>0</v>
       </c>
       <c r="AG27" t="n">
-        <v>4752</v>
+        <v>4749</v>
       </c>
       <c r="AH27" t="n">
         <v>3</v>
@@ -20439,7 +20439,7 @@
         <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>7359</v>
+        <v>6600</v>
       </c>
       <c r="E29" t="n">
         <v>759</v>
@@ -20460,7 +20460,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>7562</v>
+        <v>7486</v>
       </c>
       <c r="L29" t="n">
         <v>76</v>
@@ -20481,7 +20481,7 @@
         <v>5</v>
       </c>
       <c r="R29" t="n">
-        <v>2996</v>
+        <v>2675</v>
       </c>
       <c r="S29" t="n">
         <v>321</v>
@@ -20508,7 +20508,7 @@
         <v>16</v>
       </c>
       <c r="AA29" t="n">
-        <v>1341</v>
+        <v>627</v>
       </c>
       <c r="AB29" t="n">
         <v>714</v>
@@ -20526,7 +20526,7 @@
         <v>0</v>
       </c>
       <c r="AG29" t="n">
-        <v>4456</v>
+        <v>4448</v>
       </c>
       <c r="AH29" t="n">
         <v>8</v>
@@ -20755,7 +20755,7 @@
         <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>6593</v>
+        <v>6298</v>
       </c>
       <c r="E31" t="n">
         <v>295</v>
@@ -20776,7 +20776,7 @@
         <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>7316</v>
+        <v>7300</v>
       </c>
       <c r="L31" t="n">
         <v>16</v>
@@ -20797,7 +20797,7 @@
         <v>1</v>
       </c>
       <c r="R31" t="n">
-        <v>5374</v>
+        <v>5019</v>
       </c>
       <c r="S31" t="n">
         <v>355</v>
@@ -20842,7 +20842,7 @@
         <v>0</v>
       </c>
       <c r="AG31" t="n">
-        <v>3873</v>
+        <v>3872</v>
       </c>
       <c r="AH31" t="n">
         <v>1</v>
@@ -21113,7 +21113,7 @@
         <v>1</v>
       </c>
       <c r="R33" t="n">
-        <v>4239</v>
+        <v>4237</v>
       </c>
       <c r="S33" t="n">
         <v>2</v>
@@ -21387,7 +21387,7 @@
         <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>7568</v>
+        <v>7387</v>
       </c>
       <c r="E35" t="n">
         <v>181</v>
@@ -21408,7 +21408,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>5890</v>
+        <v>4150</v>
       </c>
       <c r="L35" t="n">
         <v>1740</v>
@@ -21429,7 +21429,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>2766</v>
+        <v>2488</v>
       </c>
       <c r="S35" t="n">
         <v>278</v>
@@ -21456,7 +21456,7 @@
         <v>13</v>
       </c>
       <c r="AA35" t="n">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="AB35" t="n">
         <v>3</v>
@@ -21474,7 +21474,7 @@
         <v>0</v>
       </c>
       <c r="AG35" t="n">
-        <v>4408</v>
+        <v>4403</v>
       </c>
       <c r="AH35" t="n">
         <v>5</v>
@@ -21703,7 +21703,7 @@
         <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>6274</v>
+        <v>6198</v>
       </c>
       <c r="E37" t="n">
         <v>76</v>
@@ -21724,7 +21724,7 @@
         <v>1</v>
       </c>
       <c r="K37" t="n">
-        <v>7283</v>
+        <v>7271</v>
       </c>
       <c r="L37" t="n">
         <v>12</v>
@@ -21745,7 +21745,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>2735</v>
+        <v>2587</v>
       </c>
       <c r="S37" t="n">
         <v>148</v>
@@ -21790,7 +21790,7 @@
         <v>0</v>
       </c>
       <c r="AG37" t="n">
-        <v>4463</v>
+        <v>4452</v>
       </c>
       <c r="AH37" t="n">
         <v>11</v>
@@ -22040,7 +22040,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>6389</v>
+        <v>6386</v>
       </c>
       <c r="L39" t="n">
         <v>3</v>
@@ -22061,7 +22061,7 @@
         <v>2</v>
       </c>
       <c r="R39" t="n">
-        <v>2233</v>
+        <v>2145</v>
       </c>
       <c r="S39" t="n">
         <v>88</v>
@@ -22106,7 +22106,7 @@
         <v>0</v>
       </c>
       <c r="AG39" t="n">
-        <v>4682</v>
+        <v>4680</v>
       </c>
       <c r="AH39" t="n">
         <v>2</v>
@@ -22335,7 +22335,7 @@
         <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>6377</v>
+        <v>6372</v>
       </c>
       <c r="E41" t="n">
         <v>5</v>
@@ -22356,7 +22356,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>8234</v>
+        <v>6242</v>
       </c>
       <c r="L41" t="n">
         <v>1992</v>
@@ -22377,7 +22377,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>2309</v>
+        <v>1837</v>
       </c>
       <c r="S41" t="n">
         <v>472</v>
@@ -22404,7 +22404,7 @@
         <v>30</v>
       </c>
       <c r="AA41" t="n">
-        <v>555</v>
+        <v>234</v>
       </c>
       <c r="AB41" t="n">
         <v>321</v>
@@ -22422,7 +22422,7 @@
         <v>0</v>
       </c>
       <c r="AG41" t="n">
-        <v>4524</v>
+        <v>4523</v>
       </c>
       <c r="AH41" t="n">
         <v>1</v>
@@ -22440,7 +22440,7 @@
         <v>0</v>
       </c>
       <c r="AM41" t="n">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="AN41" t="n">
         <v>2</v>
